--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo confidencial bajo</t>
+          <t>Apoyo confidencial bajo (tasa de respuesta: 98,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo confidencial bajo</t>
+          <t>Apoyo confidencial bajo (tasa de respuesta: 98,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>75,38%</t>
+          <t>76,18%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>81,9%</t>
+          <t>80,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>79,45%</t>
+          <t>78,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,65; 81,14</t>
+          <t>68,68; 81,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,64; 75,25</t>
+          <t>62,91; 75,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77,07; 85,66</t>
+          <t>75,54; 85,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,59; 74,27</t>
+          <t>66,66; 74,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,46; 82,83</t>
+          <t>74,53; 82,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>66,76; 73,43</t>
+          <t>66,56; 73,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,26%</t>
+          <t>76,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>78,72%</t>
+          <t>78,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>77,01%</t>
+          <t>77,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,75; 77,78</t>
+          <t>73,76; 79,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,52; 65,66</t>
+          <t>30,41; 65,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>76,42; 80,95</t>
+          <t>75,53; 81,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,27; 66,39</t>
+          <t>49,38; 66,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,51; 78,88</t>
+          <t>75,48; 79,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,68; 64,6</t>
+          <t>42,41; 64,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>69,13%</t>
+          <t>69,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79,97%</t>
+          <t>79,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>75,3%</t>
+          <t>75,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,55; 73,22</t>
+          <t>64,04; 74,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,08; 59,9</t>
+          <t>50,51; 60,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76,53; 83,11</t>
+          <t>75,53; 83,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,69; 61,08</t>
+          <t>52,79; 61,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>72,58; 78,02</t>
+          <t>71,8; 77,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,26; 59,79</t>
+          <t>53,26; 59,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>73,85%</t>
+          <t>74,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>77,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,68; 75,95</t>
+          <t>72,52; 76,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,51; 63,63</t>
+          <t>34,97; 63,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>77,69; 81,31</t>
+          <t>77,2; 81,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,85; 65,37</t>
+          <t>54,93; 65,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>75,57; 78,21</t>
+          <t>75,59; 78,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,81; 63,69</t>
+          <t>45,19; 63,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31731</t>
+          <t>55615</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57073</t>
+          <t>93955</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88804</t>
+          <t>149570</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28899; 34157</t>
+          <t>50138; 59832</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>141026; 169412</t>
+          <t>141639; 169195</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53703; 59692</t>
+          <t>87886; 99024</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>260564; 290644</t>
+          <t>260840; 292438</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>84347; 92580</t>
+          <t>141120; 155807</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>411577; 452662</t>
+          <t>410343; 450955</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>171886</t>
+          <t>358145</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>183897</t>
+          <t>354303</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>355783</t>
+          <t>712448</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>166155; 177647</t>
+          <t>344594; 369840</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>441316; 919362</t>
+          <t>425738; 917325</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>178538; 189106</t>
+          <t>340711; 366649</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>588388; 777069</t>
+          <t>578012; 780878</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>348871; 364450</t>
+          <t>693127; 732151</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1097136; 1660653</t>
+          <t>1090137; 1646936</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56477</t>
+          <t>143148</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86326</t>
+          <t>201221</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>142802</t>
+          <t>344368</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>52729; 59815</t>
+          <t>131842; 153139</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>226172; 270502</t>
+          <t>228085; 273060</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>82609; 89716</t>
+          <t>190610; 209633</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>232612; 269655</t>
+          <t>233076; 270991</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>137645; 147946</t>
+          <t>329004; 356460</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>475647; 533991</t>
+          <t>475636; 534927</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>260095</t>
+          <t>556907</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>327295</t>
+          <t>649479</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>587390</t>
+          <t>1206387</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>252459; 267473</t>
+          <t>541058; 574140</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>758283; 1321417</t>
+          <t>726193; 1327894</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>319480; 334392</t>
+          <t>632894; 665870</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1058764; 1309468</t>
+          <t>1100310; 1311758</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>576923; 597082</t>
+          <t>1183589; 1230694</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1869064; 2598643</t>
+          <t>1843865; 2583754</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>68,34%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>65,72%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>76,18%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>69,73%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>65,72%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>71,78%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>68,43%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>80,75%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>70,54%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>68,43%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>70,5%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>67,22%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>78,99%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>70,24%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>67,22%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>62,38; 73,8</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>61,06; 70,12</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>68,68; 81,96</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>62,91; 75,15</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>61,06; 70,12</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>67,78; 75,45</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>64,51; 72,06</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>75,54; 85,11</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>66,66; 74,73</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>64,51; 72,06</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>67,19; 73,43</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>63,92; 70,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>74,53; 82,28</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>66,56; 73,15</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>63,92; 70,0</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>66,28%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>61,38%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>76,66%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>53,2%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>61,38%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>66,29%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>63,75%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>78,54%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>61,61%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>63,75%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>66,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>62,57%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>77,58%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>57,03%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>62,57%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>63,19; 69,33</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>59,06; 64,01</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>73,76; 79,16</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>30,41; 65,52</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>59,06; 64,01</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>63,41; 68,69</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>61,11; 66,53</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>75,53; 81,28</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>49,38; 66,71</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>61,11; 66,53</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>64,31; 68,44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>60,81; 64,43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>75,48; 79,73</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>42,41; 64,07</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>60,81; 64,43</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>58,1%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>61,67%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>69,53%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>55,68%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>61,67%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>57,9%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>54,7%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>79,74%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>57,15%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>54,7%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>58,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>58,02%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>75,15%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>56,4%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>58,02%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>53,06; 62,85</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>57,54; 65,76</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>64,04; 74,38</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>50,51; 60,47</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>57,54; 65,76</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>53,69; 61,94</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>51,13; 58,65</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>75,53; 83,07</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>52,79; 61,38</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>51,13; 58,65</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>55,01; 61,56</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>55,07; 60,68</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>71,8; 77,79</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>53,26; 59,9</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>55,07; 60,68</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>64,52%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>62,1%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>74,64%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>55,53%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>62,1%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>65,47%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>62,11%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>79,22%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>62,37%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>65,01%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>62,11%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>77,04%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>58,89%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>62,11%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>61,97; 66,75</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>59,89; 64,01</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>72,52; 76,95</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>34,97; 63,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>59,89; 64,01</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>63,63; 67,4</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>60,08; 64,01</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>77,2; 81,22</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>54,93; 65,48</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>60,08; 64,01</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>63,43; 66,53</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>60,72; 63,59</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>75,59; 78,59</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>45,19; 63,32</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>60,72; 63,59</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>178</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>346</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>342</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>490</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>520</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>691</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>746</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>172206</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>139447</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>55615</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>156994</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>139447</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>305968</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>180606</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>93955</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>276025</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>180606</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>478174</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>320054</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>149570</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>433019</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>320054</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>157187; 185954</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>129562; 148800</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>50138; 59832</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>141639; 169195</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>129562; 148800</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>288923; 321584</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>170268; 190204</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>87886; 99024</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>260840; 292438</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>170268; 190204</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>455690; 498026</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>304358; 333301</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>141120; 155807</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>410343; 450955</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>304358; 333301</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1035</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>771</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>933</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1076</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1108</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>902</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>1879</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1835</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>2111</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1879</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1835</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>846261</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>513155</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>358145</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>744947</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>513155</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>834710</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>542017</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>354303</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>721177</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>542017</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>1680971</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1055173</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>712448</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1466124</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1055173</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>806832; 885209</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>493765; 535155</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>344594; 369840</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>425738; 917325</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>493765; 535155</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>798458; 864875</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>519602; 565707</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>340711; 366649</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>578012; 780878</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>519602; 565707</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1630700; 1735541</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1025383; 1086428</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>693127; 732151</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1090137; 1646936</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1025383; 1086428</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>345</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>287</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>377</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>536</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>364</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>881</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>685</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>741</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>290642</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>231286</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>143148</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>251432</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>231286</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>285212</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>225361</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>201221</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>252297</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>225361</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>575855</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>456646</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>344368</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>503728</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>456646</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>265420; 314422</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>215808; 246635</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>131842; 153139</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>228085; 273060</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>215808; 246635</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>264474; 305095</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>210668; 241644</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>190610; 209633</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>233076; 270991</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>210668; 241644</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>546220; 611255</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>433420; 477606</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>329004; 356460</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>475636; 534927</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>433420; 477606</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1656</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>1558</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1259</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1656</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1666</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>1954</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1666</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>3255</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3322</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>3512</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>3255</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>3322</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1309110</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>883888</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>556907</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1153372</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>883888</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1425891</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>947984</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>649479</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1249499</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>947984</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>2735001</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1831873</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>1206387</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2402871</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1831873</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1257316; 1354312</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>852405; 911082</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>541058; 574140</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>726193; 1327894</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>852405; 911082</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>1385755; 1468030</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>916920; 976979</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>632894; 665870</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1100310; 1311758</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>916920; 976979</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>2668438; 2798906</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1791047; 1875691</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>1183589; 1230694</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1843865; 2583754</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1791047; 1875691</t>
         </is>
       </c>
     </row>
